--- a/data_analysis.xlsx
+++ b/data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edrick\PycharmProjects\sustainbale_econ_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E640832-5A74-45B8-9DA8-8F7C2F775280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF26C3FD-F84A-4E7E-9356-A18FB5F3A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{1B299115-941F-47A3-BD92-06D603FEB45D}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>GHG Intensity Over Years</t>
   </si>
@@ -90,6 +91,15 @@
   </si>
   <si>
     <t>Average_emission</t>
+  </si>
+  <si>
+    <t>Average_emission_long_hist_companies</t>
+  </si>
+  <si>
+    <t>total_carbon_emission</t>
+  </si>
+  <si>
+    <t>%_scope_2</t>
   </si>
 </sst>
 </file>
@@ -1432,6 +1442,632 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$O$5:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.1284487428113721E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8333700899773038E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6009111107286858E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0354896197679469E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3539573636039762E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1241604870352943E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3577349782773702E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9542526513782134E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7185618201392635E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2747148769027482E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.742273202815812E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9994920485257766E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5869741842584552E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4340087395655694E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8936815718118231E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3422801996787015E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8703075492665189E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5869741842584552E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4340087395655694E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8936815718118231E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8703075492665189E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBF1-4EB3-92FF-E35063F05686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1123060232"/>
+        <c:axId val="1123060592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1123060232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123060592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1123060592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123060232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$H$5:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>29531670.299504288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27628625.128605522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29552754.062103651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30581500.65866895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33876469.494839825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31018246.167193469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29545149.417420309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32909794.552500531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32786521.154022511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26330809.897234794</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24681753.677404542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24533050.165028051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20735683.622660886</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21838440.838327099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19949505.607817415</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16435445.605850972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14271222.179300001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20735683.622660886</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21838440.838327099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19949505.607817415</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14271222.179300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A13B-4C89-9753-55A87EA6F8E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1123863368"/>
+        <c:axId val="1123864448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1123863368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123864448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1123864448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123863368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1473,6 +2109,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2518,20 +3234,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>37603</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>88795</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>51518</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>349361</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>27835</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562721</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>94095</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2558,16 +4280,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>43566</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32805</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13086</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>169965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>351348</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>144123</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>526608</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>106023</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2592,6 +4314,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>820272</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B2DE93-CEC8-B65C-D2FC-D42740D7944A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>775447</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>89653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8876AE48-01FE-C673-5193-F78BBB0FD531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2624,6 +4418,9 @@
           </cell>
           <cell r="F1" t="str">
             <v>intensity_ghg_scope_2</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>total_carbon_emission</v>
           </cell>
         </row>
         <row r="2">
@@ -12466,6 +14263,1846 @@
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="df_ghg_ts_long_form_selected_lo"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>entity_id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>year</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>absolute_ghg_scope_1</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>absolute_ghg_scope_2</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>intensity_ghg_scope_1</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>intensity_ghg_scope_2</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>total_carbon_emission</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>4147764</v>
+          </cell>
+          <cell r="B2">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>4147764</v>
+          </cell>
+          <cell r="B3">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>4147764</v>
+          </cell>
+          <cell r="B4">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4147764</v>
+          </cell>
+          <cell r="B5">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>4147764</v>
+          </cell>
+          <cell r="B6">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>4147764</v>
+          </cell>
+          <cell r="B7">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>4147764</v>
+          </cell>
+          <cell r="B8">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>4147764</v>
+          </cell>
+          <cell r="B9">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>4147764</v>
+          </cell>
+          <cell r="B10">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>4147764</v>
+          </cell>
+          <cell r="B11">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>4147764</v>
+          </cell>
+          <cell r="B12">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>4147764</v>
+          </cell>
+          <cell r="B13">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>4147764</v>
+          </cell>
+          <cell r="B14">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>4147764</v>
+          </cell>
+          <cell r="B15">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>4147764</v>
+          </cell>
+          <cell r="B16">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>4147764</v>
+          </cell>
+          <cell r="B17">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>4147764</v>
+          </cell>
+          <cell r="B18">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>4098512</v>
+          </cell>
+          <cell r="B19">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>4098512</v>
+          </cell>
+          <cell r="B20">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>4098512</v>
+          </cell>
+          <cell r="B21">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>4098512</v>
+          </cell>
+          <cell r="B22">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>4098512</v>
+          </cell>
+          <cell r="B23">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>4098512</v>
+          </cell>
+          <cell r="B24">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>4098512</v>
+          </cell>
+          <cell r="B25">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>4098512</v>
+          </cell>
+          <cell r="B26">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>4098512</v>
+          </cell>
+          <cell r="B27">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>4098512</v>
+          </cell>
+          <cell r="B28">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>4098512</v>
+          </cell>
+          <cell r="B29">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>4098512</v>
+          </cell>
+          <cell r="B30">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>4098512</v>
+          </cell>
+          <cell r="B31">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>4098512</v>
+          </cell>
+          <cell r="B32">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>4098512</v>
+          </cell>
+          <cell r="B33">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>4098512</v>
+          </cell>
+          <cell r="B34">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>4098512</v>
+          </cell>
+          <cell r="B35">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>4101540</v>
+          </cell>
+          <cell r="B36">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>4101540</v>
+          </cell>
+          <cell r="B37">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>4101540</v>
+          </cell>
+          <cell r="B38">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>4101540</v>
+          </cell>
+          <cell r="B39">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>4101540</v>
+          </cell>
+          <cell r="B40">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>4101540</v>
+          </cell>
+          <cell r="B41">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>4101540</v>
+          </cell>
+          <cell r="B42">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>4101540</v>
+          </cell>
+          <cell r="B43">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>4101540</v>
+          </cell>
+          <cell r="B44">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>4101540</v>
+          </cell>
+          <cell r="B45">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>4101540</v>
+          </cell>
+          <cell r="B46">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>4101540</v>
+          </cell>
+          <cell r="B47">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>4101540</v>
+          </cell>
+          <cell r="B48">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>4101540</v>
+          </cell>
+          <cell r="B49">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>4101540</v>
+          </cell>
+          <cell r="B50">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>4101540</v>
+          </cell>
+          <cell r="B51">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>4101540</v>
+          </cell>
+          <cell r="B52">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>5001290</v>
+          </cell>
+          <cell r="B53">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>5001290</v>
+          </cell>
+          <cell r="B54">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>5001290</v>
+          </cell>
+          <cell r="B55">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>5001290</v>
+          </cell>
+          <cell r="B56">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>5001290</v>
+          </cell>
+          <cell r="B57">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>5001290</v>
+          </cell>
+          <cell r="B58">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>5001290</v>
+          </cell>
+          <cell r="B59">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>5001290</v>
+          </cell>
+          <cell r="B60">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>5001290</v>
+          </cell>
+          <cell r="B61">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>5001290</v>
+          </cell>
+          <cell r="B62">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>5001290</v>
+          </cell>
+          <cell r="B63">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>5001290</v>
+          </cell>
+          <cell r="B64">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>5001290</v>
+          </cell>
+          <cell r="B65">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>5001290</v>
+          </cell>
+          <cell r="B66">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>5001290</v>
+          </cell>
+          <cell r="B67">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>5001290</v>
+          </cell>
+          <cell r="B68">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>5001290</v>
+          </cell>
+          <cell r="B69">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>4825275</v>
+          </cell>
+          <cell r="B70">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>4825275</v>
+          </cell>
+          <cell r="B71">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>4825275</v>
+          </cell>
+          <cell r="B72">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>4825275</v>
+          </cell>
+          <cell r="B73">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>4825275</v>
+          </cell>
+          <cell r="B74">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>4825275</v>
+          </cell>
+          <cell r="B75">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>4825275</v>
+          </cell>
+          <cell r="B76">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>4825275</v>
+          </cell>
+          <cell r="B77">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>4825275</v>
+          </cell>
+          <cell r="B78">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>4825275</v>
+          </cell>
+          <cell r="B79">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>4825275</v>
+          </cell>
+          <cell r="B80">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>4825275</v>
+          </cell>
+          <cell r="B81">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>4825275</v>
+          </cell>
+          <cell r="B82">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>4825275</v>
+          </cell>
+          <cell r="B83">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>4825275</v>
+          </cell>
+          <cell r="B84">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>4825275</v>
+          </cell>
+          <cell r="B85">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>4098284</v>
+          </cell>
+          <cell r="B86">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>4098284</v>
+          </cell>
+          <cell r="B87">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>4098284</v>
+          </cell>
+          <cell r="B88">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>4098284</v>
+          </cell>
+          <cell r="B89">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>4098284</v>
+          </cell>
+          <cell r="B90">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>4098284</v>
+          </cell>
+          <cell r="B91">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>4098284</v>
+          </cell>
+          <cell r="B92">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>4098284</v>
+          </cell>
+          <cell r="B93">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>4098284</v>
+          </cell>
+          <cell r="B94">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>4098284</v>
+          </cell>
+          <cell r="B95">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>4098284</v>
+          </cell>
+          <cell r="B96">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>4098284</v>
+          </cell>
+          <cell r="B97">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>4098284</v>
+          </cell>
+          <cell r="B98">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>4098284</v>
+          </cell>
+          <cell r="B99">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>4098284</v>
+          </cell>
+          <cell r="B100">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>4098284</v>
+          </cell>
+          <cell r="B101">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>4098284</v>
+          </cell>
+          <cell r="B102">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>4098284</v>
+          </cell>
+          <cell r="B103">
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>4072853</v>
+          </cell>
+          <cell r="B104">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>4072853</v>
+          </cell>
+          <cell r="B105">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>4072853</v>
+          </cell>
+          <cell r="B106">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>4072853</v>
+          </cell>
+          <cell r="B107">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>4072853</v>
+          </cell>
+          <cell r="B108">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>4072853</v>
+          </cell>
+          <cell r="B109">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>4072853</v>
+          </cell>
+          <cell r="B110">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>4072853</v>
+          </cell>
+          <cell r="B111">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>4072853</v>
+          </cell>
+          <cell r="B112">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>4072853</v>
+          </cell>
+          <cell r="B113">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>4072853</v>
+          </cell>
+          <cell r="B114">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>4072853</v>
+          </cell>
+          <cell r="B115">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>4072853</v>
+          </cell>
+          <cell r="B116">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>4072853</v>
+          </cell>
+          <cell r="B117">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>4072853</v>
+          </cell>
+          <cell r="B118">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>4072853</v>
+          </cell>
+          <cell r="B119">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>4072853</v>
+          </cell>
+          <cell r="B120">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>4072853</v>
+          </cell>
+          <cell r="B121">
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>4306247</v>
+          </cell>
+          <cell r="B122">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>4306247</v>
+          </cell>
+          <cell r="B123">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>4306247</v>
+          </cell>
+          <cell r="B124">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>4306247</v>
+          </cell>
+          <cell r="B125">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>4306247</v>
+          </cell>
+          <cell r="B126">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>4306247</v>
+          </cell>
+          <cell r="B127">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>4306247</v>
+          </cell>
+          <cell r="B128">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>4306247</v>
+          </cell>
+          <cell r="B129">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>4306247</v>
+          </cell>
+          <cell r="B130">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>4306247</v>
+          </cell>
+          <cell r="B131">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>4306247</v>
+          </cell>
+          <cell r="B132">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>4306247</v>
+          </cell>
+          <cell r="B133">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>4306247</v>
+          </cell>
+          <cell r="B134">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>4306247</v>
+          </cell>
+          <cell r="B135">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>4306247</v>
+          </cell>
+          <cell r="B136">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>4306247</v>
+          </cell>
+          <cell r="B137">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>4306247</v>
+          </cell>
+          <cell r="B138">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>4306247</v>
+          </cell>
+          <cell r="B139">
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>4102079</v>
+          </cell>
+          <cell r="B140">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
+            <v>4102079</v>
+          </cell>
+          <cell r="B141">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>4102079</v>
+          </cell>
+          <cell r="B142">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>4102079</v>
+          </cell>
+          <cell r="B143">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>4102079</v>
+          </cell>
+          <cell r="B144">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>4102079</v>
+          </cell>
+          <cell r="B145">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>4102079</v>
+          </cell>
+          <cell r="B146">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>4102079</v>
+          </cell>
+          <cell r="B147">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>4102079</v>
+          </cell>
+          <cell r="B148">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>4102079</v>
+          </cell>
+          <cell r="B149">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>4102079</v>
+          </cell>
+          <cell r="B150">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>4102079</v>
+          </cell>
+          <cell r="B151">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>4102079</v>
+          </cell>
+          <cell r="B152">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>4102079</v>
+          </cell>
+          <cell r="B153">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>4102079</v>
+          </cell>
+          <cell r="B154">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>4102079</v>
+          </cell>
+          <cell r="B155">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>4102079</v>
+          </cell>
+          <cell r="B156">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>4157528</v>
+          </cell>
+          <cell r="B157">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>4157528</v>
+          </cell>
+          <cell r="B158">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>4157528</v>
+          </cell>
+          <cell r="B159">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>4157528</v>
+          </cell>
+          <cell r="B160">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>4157528</v>
+          </cell>
+          <cell r="B161">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>4157528</v>
+          </cell>
+          <cell r="B162">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>4157528</v>
+          </cell>
+          <cell r="B163">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>4157528</v>
+          </cell>
+          <cell r="B164">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165">
+            <v>4157528</v>
+          </cell>
+          <cell r="B165">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166">
+            <v>4157528</v>
+          </cell>
+          <cell r="B166">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>4157528</v>
+          </cell>
+          <cell r="B167">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168">
+            <v>4157528</v>
+          </cell>
+          <cell r="B168">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169">
+            <v>4157528</v>
+          </cell>
+          <cell r="B169">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170">
+            <v>4157528</v>
+          </cell>
+          <cell r="B170">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171">
+            <v>4157528</v>
+          </cell>
+          <cell r="B171">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172">
+            <v>4157528</v>
+          </cell>
+          <cell r="B172">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173">
+            <v>4157528</v>
+          </cell>
+          <cell r="B173">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174">
+            <v>5001070</v>
+          </cell>
+          <cell r="B174">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175">
+            <v>5001070</v>
+          </cell>
+          <cell r="B175">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176">
+            <v>5001070</v>
+          </cell>
+          <cell r="B176">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177">
+            <v>5001070</v>
+          </cell>
+          <cell r="B177">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178">
+            <v>5001070</v>
+          </cell>
+          <cell r="B178">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179">
+            <v>5001070</v>
+          </cell>
+          <cell r="B179">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180">
+            <v>5001070</v>
+          </cell>
+          <cell r="B180">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="A181">
+            <v>5001070</v>
+          </cell>
+          <cell r="B181">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="A182">
+            <v>5001070</v>
+          </cell>
+          <cell r="B182">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="A183">
+            <v>5001070</v>
+          </cell>
+          <cell r="B183">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="A184">
+            <v>5001070</v>
+          </cell>
+          <cell r="B184">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="A185">
+            <v>5001070</v>
+          </cell>
+          <cell r="B185">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="A186">
+            <v>5001070</v>
+          </cell>
+          <cell r="B186">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="A187">
+            <v>5001070</v>
+          </cell>
+          <cell r="B187">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="A188">
+            <v>5001070</v>
+          </cell>
+          <cell r="B188">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="A189">
+            <v>5001070</v>
+          </cell>
+          <cell r="B189">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="A190">
+            <v>5001070</v>
+          </cell>
+          <cell r="B190">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="A191">
+            <v>5001070</v>
+          </cell>
+          <cell r="B191">
+            <v>2021</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="A192">
+            <v>5001246</v>
+          </cell>
+          <cell r="B192">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="A193">
+            <v>5001246</v>
+          </cell>
+          <cell r="B193">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="A194">
+            <v>5001246</v>
+          </cell>
+          <cell r="B194">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="A195">
+            <v>5001246</v>
+          </cell>
+          <cell r="B195">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="A196">
+            <v>5001246</v>
+          </cell>
+          <cell r="B196">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="A197">
+            <v>5001246</v>
+          </cell>
+          <cell r="B197">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="A198">
+            <v>5001246</v>
+          </cell>
+          <cell r="B198">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="A199">
+            <v>5001246</v>
+          </cell>
+          <cell r="B199">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="A200">
+            <v>5001246</v>
+          </cell>
+          <cell r="B200">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="A201">
+            <v>5001246</v>
+          </cell>
+          <cell r="B201">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="A202">
+            <v>5001246</v>
+          </cell>
+          <cell r="B202">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="A203">
+            <v>5001246</v>
+          </cell>
+          <cell r="B203">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="A204">
+            <v>5001246</v>
+          </cell>
+          <cell r="B204">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="A205">
+            <v>5001246</v>
+          </cell>
+          <cell r="B205">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="A206">
+            <v>5001246</v>
+          </cell>
+          <cell r="B206">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="A207">
+            <v>5001246</v>
+          </cell>
+          <cell r="B207">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="A208">
+            <v>5001246</v>
+          </cell>
+          <cell r="B208">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="A209">
+            <v>5001062</v>
+          </cell>
+          <cell r="B209">
+            <v>2004</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="A210">
+            <v>5001062</v>
+          </cell>
+          <cell r="B210">
+            <v>2005</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="A211">
+            <v>5001062</v>
+          </cell>
+          <cell r="B211">
+            <v>2006</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="A212">
+            <v>5001062</v>
+          </cell>
+          <cell r="B212">
+            <v>2007</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="A213">
+            <v>5001062</v>
+          </cell>
+          <cell r="B213">
+            <v>2008</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="A214">
+            <v>5001062</v>
+          </cell>
+          <cell r="B214">
+            <v>2009</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="A215">
+            <v>5001062</v>
+          </cell>
+          <cell r="B215">
+            <v>2010</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="A216">
+            <v>5001062</v>
+          </cell>
+          <cell r="B216">
+            <v>2011</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="A217">
+            <v>5001062</v>
+          </cell>
+          <cell r="B217">
+            <v>2012</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="A218">
+            <v>5001062</v>
+          </cell>
+          <cell r="B218">
+            <v>2013</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="A219">
+            <v>5001062</v>
+          </cell>
+          <cell r="B219">
+            <v>2014</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="A220">
+            <v>5001062</v>
+          </cell>
+          <cell r="B220">
+            <v>2015</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="A221">
+            <v>5001062</v>
+          </cell>
+          <cell r="B221">
+            <v>2016</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="A222">
+            <v>5001062</v>
+          </cell>
+          <cell r="B222">
+            <v>2017</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="A223">
+            <v>5001062</v>
+          </cell>
+          <cell r="B223">
+            <v>2018</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="A224">
+            <v>5001062</v>
+          </cell>
+          <cell r="B224">
+            <v>2019</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="A225">
+            <v>5001062</v>
+          </cell>
+          <cell r="B225">
+            <v>2020</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="A226">
+            <v>5001062</v>
+          </cell>
+          <cell r="B226">
+            <v>2021</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12969,13 +16606,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDF6B5F-E34D-40B6-8DFD-1A6BEA89F700}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12984,30 +16621,37 @@
     <col min="3" max="3" width="1.5546875" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="19.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="13" width="16.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -13023,8 +16667,29 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2004</v>
       </c>
@@ -13033,23 +16698,51 @@
         <v>#N/A</v>
       </c>
       <c r="D5" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>29469439.349849999</v>
       </c>
       <c r="E5" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>62230.949654285723</v>
       </c>
       <c r="F5" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2273.95380015</v>
       </c>
       <c r="G5" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>4.5827879368571436</v>
       </c>
+      <c r="H5" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A5,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>29531670.299504288</v>
+      </c>
+      <c r="J5" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A5,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>31226916.1633</v>
+      </c>
+      <c r="K5" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A5,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>66606.659309923081</v>
+      </c>
+      <c r="L5" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A5,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>2063.0000810076922</v>
+      </c>
+      <c r="M5" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A5,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>4.6237602878461548</v>
+      </c>
+      <c r="N5" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A5,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>31293522.822609928</v>
+      </c>
+      <c r="O5" s="2">
+        <f ca="1">K5/N5</f>
+        <v>2.1284487428113721E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2005</v>
       </c>
@@ -13059,23 +16752,51 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>27522868.700918566</v>
       </c>
       <c r="E6" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>105756.42768695716</v>
       </c>
       <c r="F6" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2094.2018834878572</v>
       </c>
       <c r="G6" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>4.7003294283571435</v>
       </c>
+      <c r="H6" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A6,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>27628625.128605522</v>
+      </c>
+      <c r="J6" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A6,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>29460702.685066149</v>
+      </c>
+      <c r="K6" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A6,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>113368.35938064617</v>
+      </c>
+      <c r="L6" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A6,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>2124.3768963715384</v>
+      </c>
+      <c r="M6" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A6,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>4.6799110101538464</v>
+      </c>
+      <c r="N6" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A6,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>29574071.044446792</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O25" ca="1" si="0">K6/N6</f>
+        <v>3.8333700899773038E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2006</v>
       </c>
@@ -13085,23 +16806,51 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>29416994.463287141</v>
       </c>
       <c r="E7" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>135759.59881650715</v>
       </c>
       <c r="F7" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1734.9941096257141</v>
       </c>
       <c r="G7" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>74.427224701500009</v>
       </c>
+      <c r="H7" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A7,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>29552754.062103651</v>
+      </c>
+      <c r="J7" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A7,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>31491687.549001537</v>
+      </c>
+      <c r="K7" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A7,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>145560.16451800772</v>
+      </c>
+      <c r="L7" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A7,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1798.2007508123074</v>
+      </c>
+      <c r="M7" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A7,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>79.912499649461552</v>
+      </c>
+      <c r="N7" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A7,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>31637247.713519529</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6009111107286858E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2007</v>
       </c>
@@ -13111,23 +16860,51 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>30264832.393779162</v>
       </c>
       <c r="E8" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>316668.26488978328</v>
       </c>
       <c r="F8" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1472.4913856341664</v>
       </c>
       <c r="G8" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>168.41342357975</v>
       </c>
+      <c r="H8" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A8,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>30581500.65866895</v>
+      </c>
+      <c r="J8" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A8,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>30264832.393779162</v>
+      </c>
+      <c r="K8" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A8,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>316668.26488978328</v>
+      </c>
+      <c r="L8" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A8,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1472.4913856341664</v>
+      </c>
+      <c r="M8" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A8,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>168.41342357975</v>
+      </c>
+      <c r="N8" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A8,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>30581500.65866895</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0354896197679469E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2008</v>
       </c>
@@ -13137,23 +16914,51 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>33417796.541585386</v>
       </c>
       <c r="E9" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>458672.95325443841</v>
       </c>
       <c r="F9" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1352.4991742376924</v>
       </c>
       <c r="G9" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>161.72452329346154</v>
       </c>
+      <c r="H9" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A9,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>33876469.494839825</v>
+      </c>
+      <c r="J9" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A9,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>33417796.541585386</v>
+      </c>
+      <c r="K9" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A9,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>458672.95325443841</v>
+      </c>
+      <c r="L9" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A9,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1352.4991742376924</v>
+      </c>
+      <c r="M9" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A9,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>161.72452329346154</v>
+      </c>
+      <c r="N9" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A9,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>33876469.494839817</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3539573636039762E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2009</v>
       </c>
@@ -13163,23 +16968,51 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>30708909.123904005</v>
       </c>
       <c r="E10" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>309337.04328946664</v>
       </c>
       <c r="F10" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1557.2543285053332</v>
       </c>
       <c r="G10" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>106.71882145039999</v>
       </c>
+      <c r="H10" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A10,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>31018246.167193469</v>
+      </c>
+      <c r="J10" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A10,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>31364503.951627694</v>
+      </c>
+      <c r="K10" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A10,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>356596.07252446155</v>
+      </c>
+      <c r="L10" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A10,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1247.6966740830769</v>
+      </c>
+      <c r="M10" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A10,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>123.07124432923078</v>
+      </c>
+      <c r="N10" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A10,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>31721100.024152137</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1241604870352943E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2010</v>
       </c>
@@ -13189,23 +17022,51 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>29190695.591898665</v>
       </c>
       <c r="E11" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>354453.82552163332</v>
       </c>
       <c r="F11" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1594.2265385033336</v>
       </c>
       <c r="G11" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>98.047400635733325</v>
       </c>
+      <c r="H11" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A11,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>29545149.417420309</v>
+      </c>
+      <c r="J11" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A11,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>29691687.358083073</v>
+      </c>
+      <c r="K11" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A11,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>408683.26047934615</v>
+      </c>
+      <c r="L11" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A11,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1241.7245876038464</v>
+      </c>
+      <c r="M11" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A11,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>113.06723246907693</v>
+      </c>
+      <c r="N11" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A11,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>30100370.6185624</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3577349782773702E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
@@ -13215,23 +17076,51 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>32070050.607840002</v>
       </c>
       <c r="E12" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>839743.94466053334</v>
       </c>
       <c r="F12" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1686.0359730973332</v>
       </c>
       <c r="G12" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>109.41194124439998</v>
       </c>
+      <c r="H12" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A12,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>32909794.552500531</v>
+      </c>
+      <c r="J12" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A12,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>31815859.50596923</v>
+      </c>
+      <c r="K12" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A12,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>968533.80873799999</v>
+      </c>
+      <c r="L12" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A12,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1235.8890275738461</v>
+      </c>
+      <c r="M12" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A12,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>126.18311845953846</v>
+      </c>
+      <c r="N12" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A12,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>32784393.314707227</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9542526513782134E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2012</v>
       </c>
@@ -13241,23 +17130,51 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>31729931.375173334</v>
       </c>
       <c r="E13" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1056589.7788491733</v>
       </c>
       <c r="F13" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1658.8591830233336</v>
       </c>
       <c r="G13" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>121.91069686253333</v>
       </c>
+      <c r="H13" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A13,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>32786521.154022511</v>
+      </c>
+      <c r="J13" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A13,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>31556367.363661535</v>
+      </c>
+      <c r="K13" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A13,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1218763.5029048154</v>
+      </c>
+      <c r="L13" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A13,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1202.1783206423077</v>
+      </c>
+      <c r="M13" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A13,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>140.60582936430768</v>
+      </c>
+      <c r="N13" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A13,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>32775130.866566353</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.7185618201392635E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2013</v>
       </c>
@@ -13267,23 +17184,51 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>25826969.927351668</v>
       </c>
       <c r="E14" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>503839.96988312219</v>
       </c>
       <c r="F14" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1809.3403799944444</v>
       </c>
       <c r="G14" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>82.876228017999992</v>
       </c>
+      <c r="H14" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A14,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>26330809.897234794</v>
+      </c>
+      <c r="J14" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A14,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>29536041.917563848</v>
+      </c>
+      <c r="K14" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A14,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>687499.39046047686</v>
+      </c>
+      <c r="L14" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A14,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1108.2568217846151</v>
+      </c>
+      <c r="M14" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A14,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>111.91333110776921</v>
+      </c>
+      <c r="N14" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A14,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>30223541.308024328</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2747148769027482E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2014</v>
       </c>
@@ -13293,23 +17238,51 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>24133921.382131115</v>
       </c>
       <c r="E15" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>547832.29527342774</v>
       </c>
       <c r="F15" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2334.855862203889</v>
       </c>
       <c r="G15" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>87.075976269222238</v>
       </c>
+      <c r="H15" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A15,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>24681753.677404542</v>
+      </c>
+      <c r="J15" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A15,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>26420284.191643082</v>
+      </c>
+      <c r="K15" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A15,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>744944.79498382297</v>
+      </c>
+      <c r="L15" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A15,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1111.2687982592306</v>
+      </c>
+      <c r="M15" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A15,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>115.46549434476923</v>
+      </c>
+      <c r="N15" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A15,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>27165228.986626904</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.742273202815812E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2015</v>
       </c>
@@ -13319,23 +17292,51 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>23925531.275809441</v>
       </c>
       <c r="E16" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>607518.88921860559</v>
       </c>
       <c r="F16" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2619.7925757550001</v>
       </c>
       <c r="G16" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>110.86602480155555</v>
       </c>
+      <c r="H16" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A16,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>24533050.165028051</v>
+      </c>
+      <c r="J16" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A16,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>26294236.470274612</v>
+      </c>
+      <c r="K16" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A16,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>813081.8578197615</v>
+      </c>
+      <c r="L16" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A16,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1387.5995116146155</v>
+      </c>
+      <c r="M16" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A16,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>142.04022085253848</v>
+      </c>
+      <c r="N16" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A16,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>27107318.328094382</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9994920485257766E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2016</v>
       </c>
@@ -13345,23 +17346,51 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>20302263.672247898</v>
       </c>
       <c r="E17" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>433419.95041298948</v>
       </c>
       <c r="F17" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2562.2089357931577</v>
       </c>
       <c r="G17" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>96.167674530631572</v>
       </c>
+      <c r="H17" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A17,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>20735683.622660886</v>
+      </c>
+      <c r="J17" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A17,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>22840549.825307701</v>
+      </c>
+      <c r="K17" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A17,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>606570.96171210008</v>
+      </c>
+      <c r="L17" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A17,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1272.8606625976922</v>
+      </c>
+      <c r="M17" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A17,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>128.88507240199999</v>
+      </c>
+      <c r="N17" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A17,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>23447120.787019797</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5869741842584552E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2017</v>
       </c>
@@ -13371,23 +17400,51 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>21232644.521573681</v>
       </c>
       <c r="E18" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>605796.31675341062</v>
       </c>
       <c r="F18" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2581.8657278315791</v>
       </c>
       <c r="G18" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>104.78834686973684</v>
       </c>
+      <c r="H18" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A18,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>21838440.838327099</v>
+      </c>
+      <c r="J18" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A18,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>24212816.808876924</v>
+      </c>
+      <c r="K18" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A18,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>861038.37847984629</v>
+      </c>
+      <c r="L18" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A18,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1214.3542111615384</v>
+      </c>
+      <c r="M18" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A18,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>143.22618774323078</v>
+      </c>
+      <c r="N18" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A18,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>25073855.18735677</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4340087395655694E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2018</v>
       </c>
@@ -13397,23 +17454,51 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>19286038.969383679</v>
       </c>
       <c r="E19" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>663466.63843372895</v>
       </c>
       <c r="F19" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2191.0073127284209</v>
       </c>
       <c r="G19" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>133.51978552926315</v>
       </c>
+      <c r="H19" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A19,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>19949505.607817415</v>
+      </c>
+      <c r="J19" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A19,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>21080025.493676919</v>
+      </c>
+      <c r="K19" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A19,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>854042.7740906924</v>
+      </c>
+      <c r="L19" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A19,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1107.9347663646154</v>
+      </c>
+      <c r="M19" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A19,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>153.5997494226923</v>
+      </c>
+      <c r="N19" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A19,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>21934068.267767616</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8936815718118231E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2019</v>
       </c>
@@ -13423,23 +17508,51 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>15590906.33405474</v>
       </c>
       <c r="E20" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>844539.27179623675</v>
       </c>
       <c r="F20" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1761.99652567421</v>
       </c>
       <c r="G20" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>130.31413316563157</v>
       </c>
+      <c r="H20" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A20,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>16435445.605850972</v>
+      </c>
+      <c r="J20" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A20,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>15636736.486387689</v>
+      </c>
+      <c r="K20" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A20,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1058882.9667927693</v>
+      </c>
+      <c r="L20" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A20,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>885.11907052384618</v>
+      </c>
+      <c r="M20" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A20,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>125.81747368323077</v>
+      </c>
+      <c r="N20" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A20,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>16695619.453180453</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3422801996787015E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
@@ -13449,23 +17562,51 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>13494448.703949999</v>
       </c>
       <c r="E21" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>776773.47535000008</v>
       </c>
       <c r="F21" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1526.7451000000001</v>
       </c>
       <c r="G21" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>119.45509999999997</v>
       </c>
+      <c r="H21" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A21,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>14271222.179300001</v>
+      </c>
+      <c r="J21" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A21,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>13916523.828769229</v>
+      </c>
+      <c r="K21" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A21,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1026641.4094615385</v>
+      </c>
+      <c r="L21" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A21,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>548.56623076923074</v>
+      </c>
+      <c r="M21" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A21,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>122.2496923076923</v>
+      </c>
+      <c r="N21" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A21,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>14943165.238230767</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8703075492665189E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2016</v>
       </c>
@@ -13475,23 +17616,51 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>20302263.672247898</v>
       </c>
       <c r="E22" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>433419.95041298948</v>
       </c>
       <c r="F22" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2562.2089357931577</v>
       </c>
       <c r="G22" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>96.167674530631572</v>
       </c>
+      <c r="H22" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A22,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>20735683.622660886</v>
+      </c>
+      <c r="J22" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A22,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>22840549.825307701</v>
+      </c>
+      <c r="K22" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A22,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>606570.96171210008</v>
+      </c>
+      <c r="L22" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A22,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1272.8606625976922</v>
+      </c>
+      <c r="M22" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A22,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>128.88507240199999</v>
+      </c>
+      <c r="N22" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A22,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>23447120.787019797</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5869741842584552E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2017</v>
       </c>
@@ -13501,23 +17670,51 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>21232644.521573681</v>
       </c>
       <c r="E23" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>605796.31675341062</v>
       </c>
       <c r="F23" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2581.8657278315791</v>
       </c>
       <c r="G23" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>104.78834686973684</v>
       </c>
+      <c r="H23" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A23,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>21838440.838327099</v>
+      </c>
+      <c r="J23" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A23,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>24212816.808876924</v>
+      </c>
+      <c r="K23" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A23,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>861038.37847984629</v>
+      </c>
+      <c r="L23" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A23,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1214.3542111615384</v>
+      </c>
+      <c r="M23" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A23,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>143.22618774323078</v>
+      </c>
+      <c r="N23" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A23,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>25073855.18735677</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4340087395655694E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2018</v>
       </c>
@@ -13527,23 +17724,51 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>19286038.969383679</v>
       </c>
       <c r="E24" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>663466.63843372895</v>
       </c>
       <c r="F24" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>2191.0073127284209</v>
       </c>
       <c r="G24" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>133.51978552926315</v>
       </c>
+      <c r="H24" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A24,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>19949505.607817415</v>
+      </c>
+      <c r="J24" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A24,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>21080025.493676919</v>
+      </c>
+      <c r="K24" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A24,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>854042.7740906924</v>
+      </c>
+      <c r="L24" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A24,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1107.9347663646154</v>
+      </c>
+      <c r="M24" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A24,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>153.5997494226923</v>
+      </c>
+      <c r="N24" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A24,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>21934068.267767616</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8936815718118231E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2020</v>
       </c>
@@ -13553,20 +17778,48 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(D$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>13494448.703949999</v>
       </c>
       <c r="E25" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(E$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>776773.47535000008</v>
       </c>
       <c r="F25" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(F$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>1526.7451000000001</v>
       </c>
       <c r="G25" s="5">
-        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$F$1,0)-1))</f>
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(G$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
         <v>119.45509999999997</v>
+      </c>
+      <c r="H25" s="5">
+        <f ca="1">AVERAGEIF([1]df_ghg_ts_long_form_selected!$B$1:$B$300,$A25,OFFSET([1]df_ghg_ts_long_form_selected!$A$1:$A$300,0,MATCH(H$4,[1]df_ghg_ts_long_form_selected!$A$1:$G$1,0)-1))</f>
+        <v>14271222.179300001</v>
+      </c>
+      <c r="J25" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A25,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(J$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>13916523.828769229</v>
+      </c>
+      <c r="K25" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A25,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(K$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>1026641.4094615385</v>
+      </c>
+      <c r="L25" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A25,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(L$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>548.56623076923074</v>
+      </c>
+      <c r="M25" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A25,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(M$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$F$1,0)-1))</f>
+        <v>122.2496923076923</v>
+      </c>
+      <c r="N25" s="5">
+        <f ca="1">AVERAGEIF([3]df_ghg_ts_long_form_selected_lo!$B$1:$B$300,$A25,OFFSET([3]df_ghg_ts_long_form_selected_lo!$A$1:$A$300,0,MATCH(N$4,[3]df_ghg_ts_long_form_selected_lo!$A$1:$G$1,0)-1))</f>
+        <v>14943165.238230767</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8703075492665189E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data_analysis.xlsx
+++ b/data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edrick\PycharmProjects\sustainbale_econ_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF26C3FD-F84A-4E7E-9356-A18FB5F3A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1A28A8-8337-4388-9E88-3F4631B8FC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{1B299115-941F-47A3-BD92-06D603FEB45D}"/>
   </bookViews>
@@ -16609,10 +16609,10 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data_analysis.xlsx
+++ b/data_analysis.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edrick\PycharmProjects\sustainbale_econ_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8DB988-2B76-4D47-82DF-76B9674A11A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E40699-05DD-4333-B96F-291792DA33B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{1B299115-941F-47A3-BD92-06D603FEB45D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{1B299115-941F-47A3-BD92-06D603FEB45D}"/>
   </bookViews>
   <sheets>
     <sheet name="cp_pricing" sheetId="2" r:id="rId1"/>
     <sheet name="ghg_emission" sheetId="1" r:id="rId2"/>
+    <sheet name="hardcoded" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
   <si>
     <t>GHG Intensity Over Years</t>
   </si>
@@ -870,6 +871,1985 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$P$6:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.1284487427790863E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8333700902449998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6009111108948524E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0354896197398076E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3539573636867322E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1241604870131523E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3577349782728985E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9542526514211482E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7185618201607561E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2747148768820002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7422732028115387E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9994920484698297E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5869741842411188E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4340087395501664E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.893681571718681E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3422801994842598E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.8703075493372498E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5869741842411188E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4340087395501664E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.893681571718681E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8703075493372498E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E8B-40A8-9888-B769198728C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1123060232"/>
+        <c:axId val="1123060592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1123060232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123060592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1123060592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123060232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$I$6:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>29531670.299935717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27628625.126711432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29552754.061064281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30581500.659499999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33876469.492769234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31018246.167800006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29545149.417293333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32909794.551666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32786521.154193331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26330809.897272218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24681753.677261107</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24533050.165322218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20735683.622864213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21838440.838620529</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19949505.607884735</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16435445.606368419</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14271222.17915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20735683.622864213</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21838440.838620529</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19949505.607884735</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14271222.17915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3777-4A3A-9E49-4C1883128068}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1123863368"/>
+        <c:axId val="1123864448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1123863368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123864448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1123864448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1123863368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$U$7:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.2726137150222378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36350029674493634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32050307731219968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42379367148613417</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69209048661630068</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68788035376972201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69108772585207501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67828966336997887</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69205386375591227</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66554005217244516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71091763108332751</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75264942993479811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.7867524386358451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.69205386375591227</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66554005217244516</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71091763108332751</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7867524386358451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4722-4337-8C30-141E53C81899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1124068640"/>
+        <c:axId val="1124069360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1124068640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124069360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1124069360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1124068640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>ghg_emission!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$AA$6:$AA$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27261371502223702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.363500296744936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32050307731219901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.423793671486134</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56656109572856772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50290617471536336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47342086620191748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4697052208636357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46699536303863726</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44809267162672212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4698684427293689</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48614992125491946</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51841148603539244</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46699536303863726</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44809267162672212</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4698684427293689</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51841148603539244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FE5-4623-8033-38A7B02033CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="662720152"/>
+        <c:axId val="662718712"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ghg_emission!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cp_avg_price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ghg_emission!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$B$6:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.436486486486483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.38942307692308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.519423076923077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.386730769230777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.370384615384612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.425660377358493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.177884615384615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5103846153846101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5515384615384624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9905769230769241</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4071698113207551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8599999999999985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.076346153846153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.894423076923076</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.724038461538459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4071698113207551</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8599999999999985</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.076346153846153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.724038461538459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FE5-4623-8033-38A7B02033CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1129058936"/>
+        <c:axId val="1129056056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="662720152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662718712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662718712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662720152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1129056056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1129058936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1129058936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1129056056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6805555555555554E-2"/>
+          <c:y val="0.19074074074074077"/>
+          <c:w val="0.89857655293088368"/>
+          <c:h val="0.78339129483814518"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EUA Price Change vs Change in Green Tech Ratio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ghg_emission!$C$8:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-0.18879322467861814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.91262372131600777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.733704594355149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.40275403527158116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8926357941837333E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.649695953831682E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.43007661437431632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.39396732729041783</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31616528646273445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28451735096786579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.29731386467566534</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.3746248865935957E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7434037805198219</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54851250642965654</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.8442885725100711E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.78129908591865649</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3746248865935957E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7434037805198219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53791403997751108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ghg_emission!$V$8:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.0886581722698534E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.2997219432736655E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10329059417393449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.2101328465786736E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2073720823529994E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.279806248209614E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3764200385933401E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6513811583467106E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5377578910882344E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1731798851470603E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4103008701046988E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.4698574879932829E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.6513811583467106E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5377578910882344E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5834807552517591E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5340-4EA2-9706-B9FAFC1C3AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1140720040"/>
+        <c:axId val="1140721120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1140720040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140721120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1140721120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+          <c:min val="-0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140720040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58684405074365709"/>
+          <c:y val="0.82430774278215224"/>
+          <c:w val="0.39371150481189854"/>
+          <c:h val="0.13865522018081072"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3480,7 +5460,1465 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14258092738407699"/>
+          <c:y val="0.125"/>
+          <c:w val="0.79083814523184603"/>
+          <c:h val="0.73401283172936715"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ghg_emission!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>absolute_ghg_scope_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>ghg_emission!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$E$6:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>29469439.349849999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27522868.700918566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29416994.463287141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30264832.393779162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33417796.541585386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30708909.123904005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29190695.591898665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32070050.607840002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31729931.375173334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25826969.927351668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24133921.382131115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23925531.275809441</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20302263.672247898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21232644.521573681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19286038.969383679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15590906.33405474</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13494448.703949999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20302263.672247898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21232644.521573681</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19286038.969383679</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13494448.703949999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B47D-4F2D-A2FA-A027EFBFB0A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="872428264"/>
+        <c:axId val="872427544"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ghg_emission!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cp_avg_price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ghg_emission!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$B$6:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.436486486486483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.38942307692308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.519423076923077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.386730769230777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.370384615384612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.425660377358493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.177884615384615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5103846153846101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5515384615384624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9905769230769241</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4071698113207551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8599999999999985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.076346153846153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.894423076923076</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.724038461538459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4071698113207551</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8599999999999985</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.076346153846153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.724038461538459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B47D-4F2D-A2FA-A027EFBFB0A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="466476640"/>
+        <c:axId val="466477720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="872428264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872427544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="872427544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872428264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466477720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466476640"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="466476640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="466477720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14258092738407699"/>
+          <c:y val="0.125"/>
+          <c:w val="0.79083814523184603"/>
+          <c:h val="0.73401283172936715"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ghg_emission!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>intensity_ghg_scope_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>ghg_emission!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$G$6:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2273.95380015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2094.2018834878572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1734.9941096257141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1472.4913856341664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1352.4991742376924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1557.2543285053332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1594.2265385033336</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1686.0359730973332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1658.8591830233336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1809.3403799944444</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2334.855862203889</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2619.7925757550001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2562.2089357931577</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2581.8657278315791</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2191.0073127284209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1761.99652567421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1526.7451000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2562.2089357931577</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2581.8657278315791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2191.0073127284209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1526.7451000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F10-4CC8-8382-D541A5A05055}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="872428264"/>
+        <c:axId val="872427544"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ghg_emission!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cp_avg_price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ghg_emission!$A$6:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ghg_emission!$B$6:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.436486486486483</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.38942307692308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.519423076923077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.386730769230777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.370384615384612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.425660377358493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.177884615384615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5103846153846101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5515384615384624</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9905769230769241</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6949999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4071698113207551</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8599999999999985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.076346153846153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.894423076923076</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.724038461538459</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4071698113207551</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8599999999999985</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.076346153846153</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.724038461538459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F10-4CC8-8382-D541A5A05055}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="466476640"/>
+        <c:axId val="466477720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="872428264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872427544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="872427544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872428264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="466477720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466476640"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="466476640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="466477720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3760,6 +7198,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4263,7 +7781,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4766,7 +8284,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5269,7 +8787,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5772,7 +9290,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6275,7 +9793,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6778,7 +10296,3528 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7611,6 +14650,350 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51518</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>164021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>562721</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CC5810-7C42-479E-B477-E57FC3BEC1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13086</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>169965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526608</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>106023</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43754D6E-0EB3-48F6-8101-88C3ED8B4816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>820272</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A08220E-E61F-4FAB-9B49-F32D2557C696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>35865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>775447</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>89653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60C995B-A752-4697-B69E-37D720418154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>443753</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>730624</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB1548C-D884-45E0-B8F1-562EEC0F670D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542365</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>775447</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD35F8B8-BC36-4DAD-8F73-590BC7F5220B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>398929</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87A8771-C3EF-444C-9DAA-CB6111363959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0951</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88627</cdr:x>
+      <cdr:y>0.20588</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFD0EF9-AFEE-48B1-A883-0E45E8543AED}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="434790" y="0"/>
+          <a:ext cx="3617258" cy="564777"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="sng" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Incrase in EUA Price Stimulates the User of Green Technology</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -15138,7 +22521,7 @@
       <sheetName val="df_panel_master"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>entity_id</v>
@@ -18044,11 +25427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDF6B5F-E34D-40B6-8DFD-1A6BEA89F700}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S54" sqref="S54"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -20164,4 +27547,1669 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DD6F0F-42EF-4869-8DDD-F8A3D9753261}">
+  <dimension ref="A1:AA26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="1.5546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="14" width="16.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="15.109375" style="9" customWidth="1"/>
+    <col min="19" max="21" width="15.109375" style="2" customWidth="1"/>
+    <col min="22" max="23" width="8.88671875" style="2"/>
+    <col min="24" max="27" width="14.109375" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6"/>
+      <c r="K4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" s="3" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="5">
+        <v>29469439.349849999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>62230.949654285723</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2273.95380015</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.5827879368571436</v>
+      </c>
+      <c r="I6" s="5">
+        <v>29531670.299935717</v>
+      </c>
+      <c r="K6" s="5">
+        <v>31226916.1633</v>
+      </c>
+      <c r="L6" s="5">
+        <v>66606.659309923081</v>
+      </c>
+      <c r="M6" s="5">
+        <v>2063.0000810076922</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4.6237602878461548</v>
+      </c>
+      <c r="O6" s="5">
+        <v>31293522.823084611</v>
+      </c>
+      <c r="P6" s="8">
+        <v>2.1284487427790863E-3</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="X6" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y6" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z6" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA6" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="5">
+        <v>21.436486486486483</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>27522868.700918566</v>
+      </c>
+      <c r="F7" s="5">
+        <v>105756.42768695716</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2094.2018834878572</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.7003294283571435</v>
+      </c>
+      <c r="I7" s="5">
+        <v>27628625.126711432</v>
+      </c>
+      <c r="K7" s="5">
+        <v>29460702.685066149</v>
+      </c>
+      <c r="L7" s="5">
+        <v>113368.35938064617</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2124.3768963715384</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4.6799110101538464</v>
+      </c>
+      <c r="O7" s="5">
+        <v>29574071.042381544</v>
+      </c>
+      <c r="P7" s="8">
+        <v>3.8333700902449998E-3</v>
+      </c>
+      <c r="R7" s="5">
+        <v>34264</v>
+      </c>
+      <c r="S7" s="5">
+        <v>91423</v>
+      </c>
+      <c r="T7" s="5">
+        <v>125687</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0.2726137150222378</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="X7" s="5">
+        <v>34264</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>91423</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>125687</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0.27261371502223702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="5">
+        <v>17.38942307692308</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-0.18879322467861814</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>29416994.463287141</v>
+      </c>
+      <c r="F8" s="5">
+        <v>135759.59881650715</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1734.9941096257141</v>
+      </c>
+      <c r="H8" s="5">
+        <v>74.427224701500009</v>
+      </c>
+      <c r="I8" s="5">
+        <v>29552754.061064281</v>
+      </c>
+      <c r="K8" s="5">
+        <v>31491687.549001537</v>
+      </c>
+      <c r="L8" s="5">
+        <v>145560.16451800772</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1798.2007508123074</v>
+      </c>
+      <c r="N8" s="5">
+        <v>79.912499649461552</v>
+      </c>
+      <c r="O8" s="5">
+        <v>31637247.712376919</v>
+      </c>
+      <c r="P8" s="8">
+        <v>4.6009111108948524E-3</v>
+      </c>
+      <c r="R8" s="5">
+        <v>47773.39</v>
+      </c>
+      <c r="S8" s="5">
+        <v>83652.61</v>
+      </c>
+      <c r="T8" s="5">
+        <v>131426</v>
+      </c>
+      <c r="U8" s="7">
+        <v>0.36350029674493634</v>
+      </c>
+      <c r="V8" s="12">
+        <v>9.0886581722698534E-2</v>
+      </c>
+      <c r="X8" s="5">
+        <v>47773.39</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>83652.61</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>131426</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0.363500296744936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.519423076923077</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-0.91262372131600777</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>30264832.393779162</v>
+      </c>
+      <c r="F9" s="5">
+        <v>316668.26488978328</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1472.4913856341664</v>
+      </c>
+      <c r="H9" s="5">
+        <v>168.41342357975</v>
+      </c>
+      <c r="I9" s="5">
+        <v>30581500.659499999</v>
+      </c>
+      <c r="K9" s="5">
+        <v>30264832.393779162</v>
+      </c>
+      <c r="L9" s="5">
+        <v>316668.26488978328</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1472.4913856341664</v>
+      </c>
+      <c r="N9" s="5">
+        <v>168.41342357975</v>
+      </c>
+      <c r="O9" s="5">
+        <v>30581500.659499999</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1.0354896197398076E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>38014.870000000003</v>
+      </c>
+      <c r="S9" s="5">
+        <v>80595.13</v>
+      </c>
+      <c r="T9" s="5">
+        <v>118610</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0.32050307731219968</v>
+      </c>
+      <c r="V9" s="12">
+        <v>-4.2997219432736655E-2</v>
+      </c>
+      <c r="X9" s="5">
+        <v>38014.870000000003</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>80595.13</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>118610</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0.32050307731219901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="5">
+        <v>22.386730769230777</v>
+      </c>
+      <c r="C10" s="7">
+        <v>13.733704594355149</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>33417796.541585386</v>
+      </c>
+      <c r="F10" s="5">
+        <v>458672.95325443841</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1352.4991742376924</v>
+      </c>
+      <c r="H10" s="5">
+        <v>161.72452329346154</v>
+      </c>
+      <c r="I10" s="5">
+        <v>33876469.492769234</v>
+      </c>
+      <c r="K10" s="5">
+        <v>33417796.541585386</v>
+      </c>
+      <c r="L10" s="5">
+        <v>458672.95325443841</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1352.4991742376924</v>
+      </c>
+      <c r="N10" s="5">
+        <v>161.72452329346154</v>
+      </c>
+      <c r="O10" s="5">
+        <v>33876469.492769234</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1.3539573636867322E-2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>107279.13</v>
+      </c>
+      <c r="S10" s="5">
+        <v>145860.87</v>
+      </c>
+      <c r="T10" s="5">
+        <v>253140</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0.42379367148613417</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0.10329059417393449</v>
+      </c>
+      <c r="X10" s="5">
+        <v>107279.13</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>145860.87</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>253140</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0.423793671486134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="5">
+        <v>13.370384615384612</v>
+      </c>
+      <c r="C11" s="7">
+        <v>-0.40275403527158116</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>30708909.123904005</v>
+      </c>
+      <c r="F11" s="5">
+        <v>309337.04328946664</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1557.2543285053332</v>
+      </c>
+      <c r="H11" s="5">
+        <v>106.71882145039999</v>
+      </c>
+      <c r="I11" s="5">
+        <v>31018246.167800006</v>
+      </c>
+      <c r="K11" s="5">
+        <v>31364503.951627694</v>
+      </c>
+      <c r="L11" s="5">
+        <v>356596.07252446155</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1247.6966740830769</v>
+      </c>
+      <c r="N11" s="5">
+        <v>123.07124432923078</v>
+      </c>
+      <c r="O11" s="5">
+        <v>31721100.024776932</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1.1241604870131523E-2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" s="12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y11" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA11" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="5">
+        <v>14.425660377358493</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7.8926357941837333E-2</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
+        <v>29190695.591898665</v>
+      </c>
+      <c r="F12" s="5">
+        <v>354453.82552163332</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1594.2265385033336</v>
+      </c>
+      <c r="H12" s="5">
+        <v>98.047400635733325</v>
+      </c>
+      <c r="I12" s="5">
+        <v>29545149.417293333</v>
+      </c>
+      <c r="K12" s="5">
+        <v>29691687.358083073</v>
+      </c>
+      <c r="L12" s="5">
+        <v>408683.26047934615</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1241.7245876038464</v>
+      </c>
+      <c r="N12" s="5">
+        <v>113.06723246907693</v>
+      </c>
+      <c r="O12" s="5">
+        <v>30100370.618661538</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1.3577349782728985E-2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" s="12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X12" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z12" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA12" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="5">
+        <v>13.177884615384615</v>
+      </c>
+      <c r="C13" s="7">
+        <v>-8.649695953831682E-2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>32070050.607840002</v>
+      </c>
+      <c r="F13" s="5">
+        <v>839743.94466053334</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1686.0359730973332</v>
+      </c>
+      <c r="H13" s="5">
+        <v>109.41194124439998</v>
+      </c>
+      <c r="I13" s="5">
+        <v>32909794.551666666</v>
+      </c>
+      <c r="K13" s="5">
+        <v>31815859.50596923</v>
+      </c>
+      <c r="L13" s="5">
+        <v>968533.80873799999</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1235.8890275738461</v>
+      </c>
+      <c r="N13" s="5">
+        <v>126.18311845953846</v>
+      </c>
+      <c r="O13" s="5">
+        <v>32784393.314230762</v>
+      </c>
+      <c r="P13" s="8">
+        <v>2.9542526514211482E-2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" s="12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z13" s="5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA13" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="5">
+        <v>7.5103846153846101</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-0.43007661437431632</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
+        <v>31729931.375173334</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1056589.7788491733</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1658.8591830233336</v>
+      </c>
+      <c r="H14" s="5">
+        <v>121.91069686253333</v>
+      </c>
+      <c r="I14" s="5">
+        <v>32786521.154193331</v>
+      </c>
+      <c r="K14" s="5">
+        <v>31556367.363661535</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1218763.5029048154</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1202.1783206423077</v>
+      </c>
+      <c r="N14" s="5">
+        <v>140.60582936430768</v>
+      </c>
+      <c r="O14" s="5">
+        <v>32775130.866376922</v>
+      </c>
+      <c r="P14" s="8">
+        <v>3.7185618201607561E-2</v>
+      </c>
+      <c r="R14" s="5">
+        <v>956977.03999999899</v>
+      </c>
+      <c r="S14" s="5">
+        <v>425756.95</v>
+      </c>
+      <c r="T14" s="5">
+        <v>1382733.99</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0.69209048661630068</v>
+      </c>
+      <c r="V14" s="12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="5">
+        <v>91691.276363636265</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>46887.086363636365</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>138578.36272727273</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>0.56656109572856772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4.5515384615384624</v>
+      </c>
+      <c r="C15" s="7">
+        <v>-0.39396732729041783</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>25826969.927351668</v>
+      </c>
+      <c r="F15" s="5">
+        <v>503839.96988312219</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1809.3403799944444</v>
+      </c>
+      <c r="H15" s="5">
+        <v>82.876228017999992</v>
+      </c>
+      <c r="I15" s="5">
+        <v>26330809.897272218</v>
+      </c>
+      <c r="K15" s="5">
+        <v>29536041.917563848</v>
+      </c>
+      <c r="L15" s="5">
+        <v>687499.39046047686</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1108.2568217846151</v>
+      </c>
+      <c r="N15" s="5">
+        <v>111.91333110776921</v>
+      </c>
+      <c r="O15" s="5">
+        <v>30223541.3083</v>
+      </c>
+      <c r="P15" s="8">
+        <v>2.2747148768820002E-2</v>
+      </c>
+      <c r="R15" s="5">
+        <v>962883.92</v>
+      </c>
+      <c r="S15" s="5">
+        <v>436900.09</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1399784.01</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0.68788035376972201</v>
+      </c>
+      <c r="V15" s="12">
+        <v>-4.2101328465786736E-3</v>
+      </c>
+      <c r="X15" s="5">
+        <v>72815.608571428573</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>40187.64928571428</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>113003.25785714286</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>0.50290617471536336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5.9905769230769241</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.31616528646273445</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>24133921.382131115</v>
+      </c>
+      <c r="F16" s="5">
+        <v>547832.29527342774</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2334.855862203889</v>
+      </c>
+      <c r="H16" s="5">
+        <v>87.075976269222238</v>
+      </c>
+      <c r="I16" s="5">
+        <v>24681753.677261107</v>
+      </c>
+      <c r="K16" s="5">
+        <v>26420284.191643082</v>
+      </c>
+      <c r="L16" s="5">
+        <v>744944.79498382297</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1111.2687982592306</v>
+      </c>
+      <c r="N16" s="5">
+        <v>115.46549434476923</v>
+      </c>
+      <c r="O16" s="5">
+        <v>27165228.986669235</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2.7422732028115387E-2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>924537.83</v>
+      </c>
+      <c r="S16" s="5">
+        <v>413263.13999999996</v>
+      </c>
+      <c r="T16" s="5">
+        <v>1337800.97</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0.69108772585207501</v>
+      </c>
+      <c r="V16" s="12">
+        <v>3.2073720823529994E-3</v>
+      </c>
+      <c r="X16" s="5">
+        <v>65288.188666666661</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>35942.275999999998</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>101230.46466666667</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>0.47342086620191748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7.6949999999999994</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.28451735096786579</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <v>23925531.275809441</v>
+      </c>
+      <c r="F17" s="5">
+        <v>607518.88921860559</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2619.7925757550001</v>
+      </c>
+      <c r="H17" s="5">
+        <v>110.86602480155555</v>
+      </c>
+      <c r="I17" s="5">
+        <v>24533050.165322218</v>
+      </c>
+      <c r="K17" s="5">
+        <v>26294236.470274612</v>
+      </c>
+      <c r="L17" s="5">
+        <v>813081.8578197615</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1387.5995116146155</v>
+      </c>
+      <c r="N17" s="5">
+        <v>142.04022085253848</v>
+      </c>
+      <c r="O17" s="5">
+        <v>27107318.328599993</v>
+      </c>
+      <c r="P17" s="8">
+        <v>2.9994920484698297E-2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>903939.65</v>
+      </c>
+      <c r="S17" s="5">
+        <v>428735.31000000006</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1332674.96</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.67828966336997887</v>
+      </c>
+      <c r="V17" s="12">
+        <v>-1.279806248209614E-2</v>
+      </c>
+      <c r="X17" s="5">
+        <v>64018.576666666668</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>39503.950714285718</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>100888.93066666667</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>0.4697052208636357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5.4071698113207551</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-0.29731386467566534</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <v>20302263.672247898</v>
+      </c>
+      <c r="F18" s="5">
+        <v>433419.95041298948</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2562.2089357931577</v>
+      </c>
+      <c r="H18" s="5">
+        <v>96.167674530631572</v>
+      </c>
+      <c r="I18" s="5">
+        <v>20735683.622864213</v>
+      </c>
+      <c r="K18" s="5">
+        <v>22840549.825307701</v>
+      </c>
+      <c r="L18" s="5">
+        <v>606570.96171210008</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1272.8606625976922</v>
+      </c>
+      <c r="N18" s="5">
+        <v>128.88507240199999</v>
+      </c>
+      <c r="O18" s="5">
+        <v>23447120.787176926</v>
+      </c>
+      <c r="P18" s="8">
+        <v>2.5869741842411188E-2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>878765.91999999981</v>
+      </c>
+      <c r="S18" s="5">
+        <v>391028.19000000006</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1269794.1099999999</v>
+      </c>
+      <c r="U18" s="7">
+        <v>0.69205386375591227</v>
+      </c>
+      <c r="V18" s="12">
+        <v>1.3764200385933401E-2</v>
+      </c>
+      <c r="X18" s="5">
+        <v>62136.461333333318</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>36395.013571428579</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>96105.140666666659</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0.46699536303863726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.8599999999999985</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8.3746248865935957E-2</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <v>21232644.521573681</v>
+      </c>
+      <c r="F19" s="5">
+        <v>605796.31675341062</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2581.8657278315791</v>
+      </c>
+      <c r="H19" s="5">
+        <v>104.78834686973684</v>
+      </c>
+      <c r="I19" s="5">
+        <v>21838440.838620529</v>
+      </c>
+      <c r="K19" s="5">
+        <v>24212816.808876924</v>
+      </c>
+      <c r="L19" s="5">
+        <v>861038.37847984629</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1214.3542111615384</v>
+      </c>
+      <c r="N19" s="5">
+        <v>143.22618774323078</v>
+      </c>
+      <c r="O19" s="5">
+        <v>25073855.187469237</v>
+      </c>
+      <c r="P19" s="8">
+        <v>3.4340087395501664E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>840367.9</v>
+      </c>
+      <c r="S19" s="5">
+        <v>422317.79</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1262685.6900000002</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0.66554005217244516</v>
+      </c>
+      <c r="V19" s="12">
+        <v>-2.6513811583467106E-2</v>
+      </c>
+      <c r="X19" s="5">
+        <v>59441.83933333333</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>38767.994999999995</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>95625.301333333337</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>0.44809267162672212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="5">
+        <v>16.076346153846153</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.7434037805198219</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>19286038.969383679</v>
+      </c>
+      <c r="F20" s="5">
+        <v>663466.63843372895</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2191.0073127284209</v>
+      </c>
+      <c r="H20" s="5">
+        <v>133.51978552926315</v>
+      </c>
+      <c r="I20" s="5">
+        <v>19949505.607884735</v>
+      </c>
+      <c r="K20" s="5">
+        <v>21080025.493676919</v>
+      </c>
+      <c r="L20" s="5">
+        <v>854042.7740906924</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1107.9347663646154</v>
+      </c>
+      <c r="N20" s="5">
+        <v>153.5997494226923</v>
+      </c>
+      <c r="O20" s="5">
+        <v>21934068.268292308</v>
+      </c>
+      <c r="P20" s="8">
+        <v>3.893681571718681E-2</v>
+      </c>
+      <c r="R20" s="5">
+        <v>901841.98999999987</v>
+      </c>
+      <c r="S20" s="5">
+        <v>366718.46</v>
+      </c>
+      <c r="T20" s="5">
+        <v>1268560.45</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0.71091763108332751</v>
+      </c>
+      <c r="V20" s="12">
+        <v>4.5377578910882344E-2</v>
+      </c>
+      <c r="X20" s="5">
+        <v>63646.666666666657</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>35966.042857142857</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>97214.973333333328</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>0.4698684427293689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="5">
+        <v>24.894423076923076</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.54851250642965654</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <v>15590906.33405474</v>
+      </c>
+      <c r="F21" s="5">
+        <v>844539.27179623675</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1761.99652567421</v>
+      </c>
+      <c r="H21" s="5">
+        <v>130.31413316563157</v>
+      </c>
+      <c r="I21" s="5">
+        <v>16435445.606368419</v>
+      </c>
+      <c r="K21" s="5">
+        <v>15636736.486387689</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1058882.9667927693</v>
+      </c>
+      <c r="M21" s="5">
+        <v>885.11907052384618</v>
+      </c>
+      <c r="N21" s="5">
+        <v>125.81747368323077</v>
+      </c>
+      <c r="O21" s="5">
+        <v>16695619.453692308</v>
+      </c>
+      <c r="P21" s="8">
+        <v>6.3422801994842598E-2</v>
+      </c>
+      <c r="R21" s="5">
+        <v>878732.57</v>
+      </c>
+      <c r="S21" s="5">
+        <v>288786.51</v>
+      </c>
+      <c r="T21" s="5">
+        <v>1167519.08</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.75264942993479811</v>
+      </c>
+      <c r="V21" s="12">
+        <v>4.1731798851470603E-2</v>
+      </c>
+      <c r="X21" s="5">
+        <v>58410.84375</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>27599.606666666667</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>84285.475000000006</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>0.48614992125491946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="5">
+        <v>24.724038461538459</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-6.8442885725100711E-3</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
+        <v>13494448.703949999</v>
+      </c>
+      <c r="F22" s="5">
+        <v>776773.47535000008</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1526.7451000000001</v>
+      </c>
+      <c r="H22" s="5">
+        <v>119.45509999999997</v>
+      </c>
+      <c r="I22" s="5">
+        <v>14271222.17915</v>
+      </c>
+      <c r="K22" s="5">
+        <v>13916523.828769229</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1026641.4094615385</v>
+      </c>
+      <c r="M22" s="5">
+        <v>548.56623076923074</v>
+      </c>
+      <c r="N22" s="5">
+        <v>122.2496923076923</v>
+      </c>
+      <c r="O22" s="5">
+        <v>14943165.238076923</v>
+      </c>
+      <c r="P22" s="8">
+        <v>6.8703075493372498E-2</v>
+      </c>
+      <c r="R22" s="5">
+        <v>847653.93</v>
+      </c>
+      <c r="S22" s="5">
+        <v>229754.77999999988</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1077408.71</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0.7867524386358451</v>
+      </c>
+      <c r="V22" s="12">
+        <v>3.4103008701046988E-2</v>
+      </c>
+      <c r="X22" s="5">
+        <v>58747.239375000005</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>30527.374666666659</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>87366.653124999997</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>0.51841148603539244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5.4071698113207551</v>
+      </c>
+      <c r="C23" s="7">
+        <v>-0.78129908591865649</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <v>20302263.672247898</v>
+      </c>
+      <c r="F23" s="5">
+        <v>433419.95041298948</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2562.2089357931577</v>
+      </c>
+      <c r="H23" s="5">
+        <v>96.167674530631572</v>
+      </c>
+      <c r="I23" s="5">
+        <v>20735683.622864213</v>
+      </c>
+      <c r="K23" s="5">
+        <v>22840549.825307701</v>
+      </c>
+      <c r="L23" s="5">
+        <v>606570.96171210008</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1272.8606625976922</v>
+      </c>
+      <c r="N23" s="5">
+        <v>128.88507240199999</v>
+      </c>
+      <c r="O23" s="5">
+        <v>23447120.787176926</v>
+      </c>
+      <c r="P23" s="8">
+        <v>2.5869741842411188E-2</v>
+      </c>
+      <c r="R23" s="5">
+        <v>878765.91999999981</v>
+      </c>
+      <c r="S23" s="5">
+        <v>391028.19000000006</v>
+      </c>
+      <c r="T23" s="5">
+        <v>1269794.1099999999</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0.69205386375591227</v>
+      </c>
+      <c r="V23" s="12">
+        <v>-9.4698574879932829E-2</v>
+      </c>
+      <c r="X23" s="5">
+        <v>62136.461333333318</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>36395.013571428579</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>96105.140666666659</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>0.46699536303863726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5.8599999999999985</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8.3746248865935957E-2</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <v>21232644.521573681</v>
+      </c>
+      <c r="F24" s="5">
+        <v>605796.31675341062</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2581.8657278315791</v>
+      </c>
+      <c r="H24" s="5">
+        <v>104.78834686973684</v>
+      </c>
+      <c r="I24" s="5">
+        <v>21838440.838620529</v>
+      </c>
+      <c r="K24" s="5">
+        <v>24212816.808876924</v>
+      </c>
+      <c r="L24" s="5">
+        <v>861038.37847984629</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1214.3542111615384</v>
+      </c>
+      <c r="N24" s="5">
+        <v>143.22618774323078</v>
+      </c>
+      <c r="O24" s="5">
+        <v>25073855.187469237</v>
+      </c>
+      <c r="P24" s="8">
+        <v>3.4340087395501664E-2</v>
+      </c>
+      <c r="R24" s="5">
+        <v>840367.9</v>
+      </c>
+      <c r="S24" s="5">
+        <v>422317.79</v>
+      </c>
+      <c r="T24" s="5">
+        <v>1262685.6900000002</v>
+      </c>
+      <c r="U24" s="7">
+        <v>0.66554005217244516</v>
+      </c>
+      <c r="V24" s="12">
+        <v>-2.6513811583467106E-2</v>
+      </c>
+      <c r="X24" s="5">
+        <v>59441.83933333333</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>38767.994999999995</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>95625.301333333337</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>0.44809267162672212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="5">
+        <v>16.076346153846153</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.7434037805198219</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <v>19286038.969383679</v>
+      </c>
+      <c r="F25" s="5">
+        <v>663466.63843372895</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2191.0073127284209</v>
+      </c>
+      <c r="H25" s="5">
+        <v>133.51978552926315</v>
+      </c>
+      <c r="I25" s="5">
+        <v>19949505.607884735</v>
+      </c>
+      <c r="K25" s="5">
+        <v>21080025.493676919</v>
+      </c>
+      <c r="L25" s="5">
+        <v>854042.7740906924</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1107.9347663646154</v>
+      </c>
+      <c r="N25" s="5">
+        <v>153.5997494226923</v>
+      </c>
+      <c r="O25" s="5">
+        <v>21934068.268292308</v>
+      </c>
+      <c r="P25" s="8">
+        <v>3.893681571718681E-2</v>
+      </c>
+      <c r="R25" s="5">
+        <v>901841.98999999987</v>
+      </c>
+      <c r="S25" s="5">
+        <v>366718.46</v>
+      </c>
+      <c r="T25" s="5">
+        <v>1268560.45</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0.71091763108332751</v>
+      </c>
+      <c r="V25" s="12">
+        <v>4.5377578910882344E-2</v>
+      </c>
+      <c r="X25" s="5">
+        <v>63646.666666666657</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>35966.042857142857</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>97214.973333333328</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>0.4698684427293689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24.724038461538459</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.53791403997751108</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <v>13494448.703949999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>776773.47535000008</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1526.7451000000001</v>
+      </c>
+      <c r="H26" s="5">
+        <v>119.45509999999997</v>
+      </c>
+      <c r="I26" s="5">
+        <v>14271222.17915</v>
+      </c>
+      <c r="K26" s="5">
+        <v>13916523.828769229</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1026641.4094615385</v>
+      </c>
+      <c r="M26" s="5">
+        <v>548.56623076923074</v>
+      </c>
+      <c r="N26" s="5">
+        <v>122.2496923076923</v>
+      </c>
+      <c r="O26" s="5">
+        <v>14943165.238076923</v>
+      </c>
+      <c r="P26" s="8">
+        <v>6.8703075493372498E-2</v>
+      </c>
+      <c r="R26" s="5">
+        <v>847653.93</v>
+      </c>
+      <c r="S26" s="5">
+        <v>229754.77999999988</v>
+      </c>
+      <c r="T26" s="5">
+        <v>1077408.71</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0.7867524386358451</v>
+      </c>
+      <c r="V26" s="12">
+        <v>7.5834807552517591E-2</v>
+      </c>
+      <c r="X26" s="5">
+        <v>58747.239375000005</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>30527.374666666659</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>87366.653124999997</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>0.51841148603539244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data_analysis.xlsx
+++ b/data_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edrick\PycharmProjects\sustainbale_econ_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E40699-05DD-4333-B96F-291792DA33B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F1DC6A-F477-42B6-8363-3B04BB30167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{1B299115-941F-47A3-BD92-06D603FEB45D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -817,6 +817,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="466477720"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2770,9 +2771,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.58684405074365709"/>
+          <c:x val="0.50082577167975662"/>
           <c:y val="0.82430774278215224"/>
-          <c:w val="0.39371150481189854"/>
+          <c:w val="0.47972975777873861"/>
           <c:h val="0.13865522018081072"/>
         </c:manualLayout>
       </c:layout>
@@ -4998,6 +4999,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1129056056"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -14929,7 +14931,7 @@
       <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.88627</cdr:x>
+      <cdr:x>0.90177</cdr:x>
       <cdr:y>0.20588</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -14945,8 +14947,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="434790" y="0"/>
-          <a:ext cx="3617258" cy="564777"/>
+          <a:off x="435266" y="0"/>
+          <a:ext cx="3692085" cy="552312"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -14980,7 +14982,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Incrase in EUA Price Stimulates the User of Green Technology</a:t>
+            <a:t>Increase in EUA Price Stimulates the Use of Green Technology</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:effectLst/>
@@ -27554,7 +27556,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
